--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D00636-5BAD-0B42-B1C3-E9EACF761917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C0F60-9D25-AD45-B498-F0F6A8BCA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" firstSheet="6" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -34,9 +34,10 @@
     <sheet name="2020-01-17" sheetId="49" r:id="rId19"/>
     <sheet name="2020-01-24" sheetId="50" r:id="rId20"/>
     <sheet name="2020-01-31" sheetId="51" r:id="rId21"/>
+    <sheet name="2020-02-07" sheetId="52" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -174,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +239,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="-apple-system"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -291,7 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -321,6 +328,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,9 +2558,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2790,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2810,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2830,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2913,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2953,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>6</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3137,9 +3145,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3197,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" thickBot="1">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3237,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" thickBot="1">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3257,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" thickBot="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3437,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" thickBot="1">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3477,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" thickBot="1">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" thickBot="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" thickBot="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" thickBot="1">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" thickBot="1">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" thickBot="1">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3677,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" thickBot="1">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3711,9 +3719,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3874,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3907,7 +3915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3934,9 +3942,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -4000,7 +4008,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4026,7 +4034,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4052,7 +4060,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4078,7 +4086,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4104,7 +4112,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4130,7 +4138,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4156,7 +4164,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4182,7 +4190,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4208,7 +4216,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4234,7 +4242,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4260,7 +4268,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4286,7 +4294,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4312,7 +4320,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4338,7 +4346,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4364,7 +4372,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4390,7 +4398,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4416,7 +4424,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4442,7 +4450,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4468,7 +4476,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4509,9 +4517,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4569,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4629,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4649,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4689,7 +4697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4729,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4789,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4832,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4912,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4932,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4972,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5075,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5128,9 +5136,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5194,7 +5202,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5220,7 +5228,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5246,7 +5254,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5272,7 +5280,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5298,7 +5306,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5324,7 +5332,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5350,7 +5358,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5378,7 +5386,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5404,7 +5412,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5430,7 +5438,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5456,7 +5464,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5482,7 +5490,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5508,7 +5516,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5534,7 +5542,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5560,7 +5568,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5586,7 +5594,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5612,7 +5620,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5638,7 +5646,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5664,7 +5672,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5690,7 +5698,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5716,7 +5724,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5755,9 +5763,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5815,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5835,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5915,7 +5923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5958,7 +5966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5978,7 +5986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6058,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6078,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>6</v>
       </c>
@@ -6198,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6218,7 +6226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6251,9 +6259,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6291,7 +6299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6317,7 +6325,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6343,7 +6351,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6369,7 +6377,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6395,7 +6403,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6421,7 +6429,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6447,7 +6455,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6475,7 +6483,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6501,7 +6509,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" thickBot="1">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6527,7 +6535,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6553,7 +6561,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6579,7 +6587,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6605,7 +6613,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6631,7 +6639,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6671,9 +6679,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6711,7 +6719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6731,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6771,7 +6779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6791,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6811,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6834,7 +6842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6854,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6874,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6894,7 +6902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6914,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6934,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6954,7 +6962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7034,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7077,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7097,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7117,7 +7125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7137,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7157,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7180,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>4</v>
       </c>
@@ -7200,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7220,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7240,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7300,7 +7308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7334,9 +7342,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7374,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>4</v>
       </c>
@@ -7394,7 +7402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7434,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7477,7 +7485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7517,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7537,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7557,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7577,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7617,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7637,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7680,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7726,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>6</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7786,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7826,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7846,7 +7854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7879,9 +7887,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7919,7 +7927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7939,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7962,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7982,7 +7990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8002,7 +8010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8022,7 +8030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8042,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8062,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8085,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8105,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8125,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8145,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8165,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8185,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8205,7 +8213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8225,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8245,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>6</v>
       </c>
@@ -8285,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8305,7 +8313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>4</v>
       </c>
@@ -8325,7 +8333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8365,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8388,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4</v>
       </c>
@@ -8408,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>3</v>
       </c>
@@ -8428,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8462,9 +8470,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8502,7 +8510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8542,7 +8550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8562,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8582,7 +8590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8622,7 +8630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8642,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8662,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8685,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8705,7 +8713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8725,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8745,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8765,7 +8773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8785,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -8805,7 +8813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8825,7 +8833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8845,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8865,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8885,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8908,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>5</v>
       </c>
@@ -8962,9 +8970,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9002,7 +9010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9025,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9045,7 +9053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9065,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9085,7 +9093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9105,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9125,7 +9133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9145,7 +9153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9165,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9188,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9268,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>5</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9311,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9331,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9351,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>6</v>
       </c>
@@ -9371,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9394,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9414,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>5</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>5</v>
       </c>
@@ -9454,7 +9462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -9474,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -9494,7 +9502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>6</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>6</v>
       </c>
@@ -9547,13 +9555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6263F9-D291-9648-BEBE-919A5FEFE814}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9591,7 +9599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -9617,7 +9625,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>4</v>
       </c>
@@ -9643,7 +9651,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9669,7 +9677,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -9695,7 +9703,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9721,7 +9729,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9749,7 +9757,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -9775,7 +9783,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9803,7 +9811,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -9829,7 +9837,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -9855,7 +9863,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -9883,7 +9891,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -9909,7 +9917,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -9935,7 +9943,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -9961,7 +9969,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -9987,7 +9995,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -10013,7 +10021,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -10039,7 +10047,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -10067,7 +10075,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -10095,7 +10103,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -10121,7 +10129,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -10147,7 +10155,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -10172,6 +10180,741 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5E30E-FC86-B940-92C7-9204343EF3B5}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
+      <c r="A2" s="7">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13">
+        <v>6</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="16">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="16">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="13">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="16">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="16">
+      <c r="A26" s="7">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="16">
+      <c r="A27" s="7">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10186,9 +10929,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10226,7 +10969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>5</v>
       </c>
@@ -10249,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10269,7 +11012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10289,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>5</v>
       </c>
@@ -10309,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10329,7 +11072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10349,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10369,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10389,7 +11132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -10409,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>5</v>
       </c>
@@ -10429,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10449,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10469,7 +11212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10489,7 +11232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10509,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10529,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10549,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3</v>
       </c>
@@ -10569,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10589,7 +11332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10609,7 +11352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>5</v>
       </c>
@@ -10629,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10649,7 +11392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10669,7 +11412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10689,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10712,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10732,7 +11475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -10752,7 +11495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>5</v>
       </c>
@@ -10772,7 +11515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>5</v>
       </c>
@@ -10806,9 +11549,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +11589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10869,7 +11612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10889,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10909,7 +11652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10929,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10952,7 +11695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10972,7 +11715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10992,7 +11735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11012,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11032,7 +11775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11052,7 +11795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11072,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11092,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11112,7 +11855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
@@ -11132,7 +11875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11155,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11175,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11195,7 +11938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>6</v>
       </c>
@@ -11232,9 +11975,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11272,7 +12015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11292,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11315,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>5</v>
       </c>
@@ -11335,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11355,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11375,7 +12118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11395,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11415,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -11435,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -11455,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11475,7 +12218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11495,7 +12238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -11515,7 +12258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11535,7 +12278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11555,7 +12298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11575,7 +12318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11595,7 +12338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
@@ -11615,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
@@ -11635,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>6</v>
       </c>
@@ -11655,7 +12398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>5</v>
       </c>
@@ -11675,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11695,7 +12438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11715,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
@@ -11735,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11755,7 +12498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>6</v>
       </c>
@@ -11775,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>6</v>
       </c>
@@ -11809,9 +12552,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11849,7 +12592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11872,7 +12615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11892,7 +12635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>5</v>
       </c>
@@ -11912,7 +12655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11932,7 +12675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11955,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11975,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11998,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -12018,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -12038,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>5</v>
       </c>
@@ -12058,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12084,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12104,7 +12847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>5</v>
       </c>
@@ -12124,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12144,7 +12887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12164,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>6</v>
       </c>
@@ -12184,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
@@ -12204,7 +12947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12224,7 +12967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12244,7 +12987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>3</v>
       </c>
@@ -12264,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>5</v>
       </c>
@@ -12284,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -12318,9 +13061,9 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +13101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12378,7 +13121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>4</v>
       </c>
@@ -12398,7 +13141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -12418,7 +13161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12438,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>6</v>
       </c>
@@ -12461,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -12481,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12501,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12521,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -12541,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12561,7 +13304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>3</v>
       </c>
@@ -12581,7 +13324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -12604,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>6</v>
       </c>
@@ -12624,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -12644,7 +13387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -12664,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12687,7 +13430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12707,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>6</v>
       </c>
@@ -12727,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12747,7 +13490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>3</v>
       </c>
@@ -12767,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>6</v>
       </c>
@@ -12787,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>6</v>
       </c>
@@ -12820,9 +13563,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12860,7 +13603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>3</v>
       </c>
@@ -12880,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>6</v>
       </c>
@@ -12900,7 +13643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -12920,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12940,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12960,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -12983,7 +13726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13003,7 +13746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13023,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3</v>
       </c>
@@ -13043,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13063,7 +13806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>6</v>
       </c>
@@ -13083,7 +13826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -13103,7 +13846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -13123,7 +13866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
@@ -13143,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -13163,7 +13906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13183,7 +13926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13203,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>5</v>
       </c>
@@ -13236,9 +13979,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13276,7 +14019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>6</v>
       </c>
@@ -13296,7 +14039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>6</v>
       </c>
@@ -13316,7 +14059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13336,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13359,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13379,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13399,7 +14142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13419,7 +14162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13439,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13459,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13479,7 +14222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>5</v>
       </c>
@@ -13499,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13519,7 +14262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -13539,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>5</v>
       </c>
@@ -13562,7 +14305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>6</v>
       </c>
@@ -13582,7 +14325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13602,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13622,7 +14365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>3</v>
       </c>
@@ -13642,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>3</v>
       </c>
@@ -13665,7 +14408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13685,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13705,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>6</v>
       </c>
@@ -13725,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13745,7 +14488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13765,7 +14508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>5</v>
       </c>
@@ -13785,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>6</v>
       </c>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C0F60-9D25-AD45-B498-F0F6A8BCA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA6847-1C24-4549-9875-38A4EEAB56BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" tabRatio="766" firstSheet="6" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="766" firstSheet="8" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -35,9 +35,10 @@
     <sheet name="2020-01-24" sheetId="50" r:id="rId20"/>
     <sheet name="2020-01-31" sheetId="51" r:id="rId21"/>
     <sheet name="2020-02-07" sheetId="52" r:id="rId22"/>
+    <sheet name="2020-02-14" sheetId="53" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -10190,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E5E30E-FC86-B940-92C7-9204343EF3B5}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F27"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10915,6 +10916,371 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C1A01-54E1-0547-A94D-5EDDFBC27C20}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA6847-1C24-4549-9875-38A4EEAB56BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A93FC-05FF-8643-8E26-E12641601612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="766" firstSheet="8" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="766" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -36,9 +36,10 @@
     <sheet name="2020-01-31" sheetId="51" r:id="rId21"/>
     <sheet name="2020-02-07" sheetId="52" r:id="rId22"/>
     <sheet name="2020-02-14" sheetId="53" r:id="rId23"/>
+    <sheet name="2020-02-21" sheetId="54" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -10926,8 +10927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C1A01-54E1-0547-A94D-5EDDFBC27C20}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11281,6 +11282,477 @@
       <c r="F19">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52FBF41-123A-2446-AD79-3F364D3ADC7C}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
+      <c r="A2" s="8">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" s="8">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="8">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="8">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="8">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A93FC-05FF-8643-8E26-E12641601612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E64C06-B4C4-4CA0-A57D-9C6ED971CF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" tabRatio="766" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -2560,7 +2560,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -3147,9 +3147,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1">
+    <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1">
+    <row r="26" spans="1:6" ht="16.5" thickBot="1">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3721,7 +3721,7 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3944,7 +3944,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -3984,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4519,7 +4519,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -5138,7 +5138,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -5178,7 +5178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5388,7 +5388,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5765,7 +5765,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -6261,9 +6261,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6353,7 +6353,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1">
+    <row r="13" spans="1:12" ht="16.5" thickBot="1">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="18" thickBot="1">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6681,7 +6681,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -7344,7 +7344,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -7889,7 +7889,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -8472,7 +8472,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -8972,7 +8972,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9561,7 +9561,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9601,7 +9601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="6">
         <v>4</v>
       </c>
@@ -9653,7 +9653,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9679,7 +9679,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9813,7 +9813,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -9919,7 +9919,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -9971,7 +9971,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -10105,7 +10105,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -10157,7 +10157,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -10196,7 +10196,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -10236,7 +10236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="7">
         <v>3</v>
       </c>
@@ -10262,7 +10262,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="7">
         <v>5</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -10366,7 +10366,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -10392,7 +10392,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -10626,7 +10626,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -10652,7 +10652,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="7">
         <v>3</v>
       </c>
@@ -10734,7 +10734,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="7">
         <v>3</v>
       </c>
@@ -10760,7 +10760,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="16">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="7">
         <v>5</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="7">
         <v>5</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="16">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="7">
         <v>5</v>
       </c>
@@ -10840,7 +10840,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="16">
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="7">
         <v>6</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="16">
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="7">
         <v>6</v>
       </c>
@@ -10892,7 +10892,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="16">
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="7">
         <v>6</v>
       </c>
@@ -10931,7 +10931,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11293,10 +11293,10 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11336,7 +11336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="16">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="8">
         <v>5</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="8">
         <v>6</v>
       </c>
@@ -11402,10 +11402,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -11414,7 +11414,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="16">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -11546,7 +11546,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -11586,10 +11586,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -11598,7 +11598,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -11650,7 +11650,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="16">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -11676,7 +11676,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="8">
         <v>6</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="16">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="8">
         <v>5</v>
       </c>
@@ -11767,7 +11767,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -12387,7 +12387,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -12813,7 +12813,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -13390,7 +13390,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -13899,7 +13899,7 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -14401,7 +14401,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -14817,7 +14817,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E64C06-B4C4-4CA0-A57D-9C6ED971CF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB22B2-0911-4274-B8B8-6BEF4180F1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -37,9 +37,10 @@
     <sheet name="2020-02-07" sheetId="52" r:id="rId22"/>
     <sheet name="2020-02-14" sheetId="53" r:id="rId23"/>
     <sheet name="2020-02-21" sheetId="54" r:id="rId24"/>
+    <sheet name="2020-02-28" sheetId="55" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -300,7 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -331,6 +332,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11292,8 +11302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52FBF41-123A-2446-AD79-3F364D3ADC7C}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -11756,6 +11766,386 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26688F9D-6A02-4BB8-86EA-777E609C64A7}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B12" s="14">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B13" s="14">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\darts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB22B2-0911-4274-B8B8-6BEF4180F1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3825483-E227-2044-8A93-AA2F8220FF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="766" firstSheet="8" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="766" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -38,9 +38,10 @@
     <sheet name="2020-02-14" sheetId="53" r:id="rId23"/>
     <sheet name="2020-02-21" sheetId="54" r:id="rId24"/>
     <sheet name="2020-02-28" sheetId="55" r:id="rId25"/>
+    <sheet name="2020-03-06" sheetId="56" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -2570,7 +2571,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -3157,9 +3158,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="18" thickBot="1">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="18" thickBot="1">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="18" thickBot="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="18" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+    <row r="16" spans="1:12" ht="18" thickBot="1">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+    <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1">
+    <row r="18" spans="1:6" ht="18" thickBot="1">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1">
+    <row r="19" spans="1:6" ht="18" thickBot="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1">
+    <row r="20" spans="1:6" ht="18" thickBot="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1">
+    <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
+    <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
+    <row r="23" spans="1:6" ht="18" thickBot="1">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+    <row r="24" spans="1:6" ht="18" thickBot="1">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
+    <row r="25" spans="1:6" ht="18" thickBot="1">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1">
+    <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1">
+    <row r="27" spans="1:6" ht="18" thickBot="1">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3731,7 +3732,7 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3954,7 +3955,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -3994,7 +3995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -4020,7 +4021,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -4072,7 +4073,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -4098,7 +4099,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4150,7 +4151,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4176,7 +4177,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4202,7 +4203,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -4228,7 +4229,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4254,7 +4255,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -4280,7 +4281,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -4306,7 +4307,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -4332,7 +4333,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -4358,7 +4359,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -4384,7 +4385,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -4410,7 +4411,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -4436,7 +4437,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -4462,7 +4463,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -4488,7 +4489,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -4529,7 +4530,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -5148,7 +5149,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -5188,7 +5189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>6</v>
       </c>
@@ -5214,7 +5215,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -5240,7 +5241,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -5266,7 +5267,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5292,7 +5293,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5318,7 +5319,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -5344,7 +5345,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -5370,7 +5371,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -5398,7 +5399,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -5424,7 +5425,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5450,7 +5451,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -5476,7 +5477,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -5502,7 +5503,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -5528,7 +5529,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -5554,7 +5555,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -5580,7 +5581,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -5606,7 +5607,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -5632,7 +5633,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -5658,7 +5659,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -5684,7 +5685,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -5710,7 +5711,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -5736,7 +5737,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -5775,7 +5776,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -6271,9 +6272,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -6337,7 +6338,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -6363,7 +6364,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="18" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6389,7 +6390,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="18" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6415,7 +6416,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6467,7 +6468,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -6495,7 +6496,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -6521,7 +6522,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="18" thickBot="1">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6547,7 +6548,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6573,7 +6574,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6599,7 +6600,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -6625,7 +6626,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="18" thickBot="1">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -6651,7 +6652,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6691,7 +6692,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -7354,7 +7355,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -7899,7 +7900,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -8482,7 +8483,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -8982,7 +8983,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9571,7 +9572,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9611,7 +9612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -9637,7 +9638,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="6">
         <v>4</v>
       </c>
@@ -9663,7 +9664,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -9689,7 +9690,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -9715,7 +9716,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -9741,7 +9742,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -9769,7 +9770,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -9795,7 +9796,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -9823,7 +9824,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -9849,7 +9850,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -9875,7 +9876,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -9903,7 +9904,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -9929,7 +9930,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -9955,7 +9956,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -9981,7 +9982,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -10007,7 +10008,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="9">
         <v>6</v>
       </c>
@@ -10033,7 +10034,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -10059,7 +10060,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -10087,7 +10088,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -10115,7 +10116,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -10141,7 +10142,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -10167,7 +10168,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -10206,7 +10207,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -10246,7 +10247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="7">
         <v>3</v>
       </c>
@@ -10272,7 +10273,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -10298,7 +10299,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="7">
         <v>5</v>
       </c>
@@ -10324,7 +10325,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -10350,7 +10351,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -10376,7 +10377,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -10402,7 +10403,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -10428,7 +10429,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -10454,7 +10455,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -10480,7 +10481,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -10506,7 +10507,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -10532,7 +10533,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -10558,7 +10559,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -10584,7 +10585,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -10610,7 +10611,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -10636,7 +10637,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -10662,7 +10663,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -10690,7 +10691,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -10718,7 +10719,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="7">
         <v>3</v>
       </c>
@@ -10744,7 +10745,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="7">
         <v>3</v>
       </c>
@@ -10770,7 +10771,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="7">
         <v>5</v>
       </c>
@@ -10796,7 +10797,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="7">
         <v>5</v>
       </c>
@@ -10822,7 +10823,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="16">
       <c r="A24" s="7">
         <v>5</v>
       </c>
@@ -10850,7 +10851,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="16">
       <c r="A25" s="7">
         <v>6</v>
       </c>
@@ -10876,7 +10877,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="16">
       <c r="A26" s="7">
         <v>6</v>
       </c>
@@ -10902,7 +10903,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="16">
       <c r="A27" s="7">
         <v>6</v>
       </c>
@@ -10941,7 +10942,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11306,7 +11307,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11346,7 +11347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -11372,7 +11373,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="8">
         <v>5</v>
       </c>
@@ -11398,7 +11399,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="8">
         <v>6</v>
       </c>
@@ -11424,7 +11425,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -11452,7 +11453,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -11478,7 +11479,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -11504,7 +11505,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -11530,7 +11531,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -11556,7 +11557,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -11582,7 +11583,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -11608,7 +11609,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -11634,7 +11635,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -11660,7 +11661,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -11686,7 +11687,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16">
       <c r="A15" s="8">
         <v>6</v>
       </c>
@@ -11712,7 +11713,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -11738,7 +11739,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="8">
         <v>5</v>
       </c>
@@ -11773,13 +11774,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26688F9D-6A02-4BB8-86EA-777E609C64A7}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="14" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="B2" s="14">
         <v>0</v>
       </c>
@@ -11840,7 +11841,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="B3" s="14">
         <v>0</v>
       </c>
@@ -11865,7 +11866,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="18" thickBot="1">
       <c r="B4" s="14">
         <v>0</v>
       </c>
@@ -11890,7 +11891,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="18" thickBot="1">
       <c r="B5" s="14">
         <v>1</v>
       </c>
@@ -11913,7 +11914,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="B6" s="14">
         <v>1</v>
       </c>
@@ -11936,7 +11937,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="B7" s="14">
         <v>2</v>
       </c>
@@ -11959,7 +11960,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="18" thickBot="1">
       <c r="B8" s="14">
         <v>3</v>
       </c>
@@ -11982,7 +11983,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="B9" s="14">
         <v>3</v>
       </c>
@@ -12005,7 +12006,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="18" thickBot="1">
       <c r="B10" s="14">
         <v>3</v>
       </c>
@@ -12028,7 +12029,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="B11" s="14">
         <v>3</v>
       </c>
@@ -12051,7 +12052,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="B12" s="14">
         <v>4</v>
       </c>
@@ -12074,7 +12075,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickBot="1">
+    <row r="13" spans="1:12" ht="18" thickBot="1">
       <c r="B13" s="14">
         <v>4</v>
       </c>
@@ -12097,7 +12098,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="18" thickBot="1">
       <c r="B14" s="14">
         <v>4</v>
       </c>
@@ -12120,7 +12121,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="B15" s="14">
         <v>5</v>
       </c>
@@ -12146,6 +12147,475 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C785B45-047C-B449-A948-5A4ACEE16F08}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="16">
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="16">
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="16">
+      <c r="B19" s="13">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12157,7 +12627,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -12777,7 +13247,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -13203,7 +13673,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -13780,7 +14250,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -14289,7 +14759,7 @@
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -14791,7 +15261,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -15207,7 +15677,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">

--- a/data/Austerlitz_seizoen_2019-2020.xlsx
+++ b/data/Austerlitz_seizoen_2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/darts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3825483-E227-2044-8A93-AA2F8220FF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C8576F-ED48-8E45-B323-6E149FC6E843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="766" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="766" firstSheet="12" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-08-30" sheetId="30" r:id="rId1"/>
@@ -39,9 +39,10 @@
     <sheet name="2020-02-21" sheetId="54" r:id="rId24"/>
     <sheet name="2020-02-28" sheetId="55" r:id="rId25"/>
     <sheet name="2020-03-06" sheetId="56" r:id="rId26"/>
+    <sheet name="2020-03-13" sheetId="57" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="Wedstrijden">[1]Rondeberekening!$A$2:$G$83</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="38">
   <si>
     <t>Baan</t>
   </si>
@@ -12154,7 +12155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C785B45-047C-B449-A948-5A4ACEE16F08}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
@@ -12613,6 +12616,441 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974717A-86EA-8941-96CB-B4345D988B4D}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="16">
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" ht="16">
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" ht="16">
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" ht="16">
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" ht="16">
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
